--- a/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
+++ b/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\헤딩게임\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\MonsterData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D846E-80D6-41CE-9F6E-46ED932A6DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD87CB-7650-4279-9F99-EB083B77B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27555" yWindow="4665" windowWidth="27690" windowHeight="16530" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
+    <workbookView xWindow="27885" yWindow="1080" windowWidth="25155" windowHeight="11385" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3068,13 +3068,13 @@
         <v>5</v>
       </c>
       <c r="G47" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H47" s="7">
         <v>5</v>
       </c>
-      <c r="H47" s="7">
-        <v>2</v>
-      </c>
       <c r="I47" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" s="7">
         <v>-1</v>
@@ -3112,13 +3112,13 @@
         <v>5</v>
       </c>
       <c r="G48" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H48" s="7">
         <v>5</v>
       </c>
-      <c r="H48" s="7">
-        <v>2</v>
-      </c>
       <c r="I48" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" s="7">
         <v>-1</v>
@@ -3156,13 +3156,13 @@
         <v>5</v>
       </c>
       <c r="G49" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H49" s="7">
         <v>5</v>
       </c>
-      <c r="H49" s="7">
-        <v>2</v>
-      </c>
       <c r="I49" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" s="7">
         <v>-1</v>
@@ -3197,16 +3197,16 @@
         <v>1</v>
       </c>
       <c r="F50" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G50" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H50" s="7">
         <v>5</v>
       </c>
-      <c r="H50" s="7">
-        <v>2</v>
-      </c>
       <c r="I50" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" s="7">
         <v>-1</v>
@@ -3241,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="F51" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H51" s="7">
         <v>5</v>
       </c>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
       <c r="I51" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" s="7">
         <v>-1</v>
@@ -3285,16 +3285,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G52" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H52" s="7">
         <v>5</v>
       </c>
-      <c r="H52" s="7">
-        <v>2</v>
-      </c>
       <c r="I52" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" s="7">
         <v>-1</v>
@@ -3329,16 +3329,16 @@
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G53" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H53" s="7">
         <v>5</v>
       </c>
-      <c r="H53" s="7">
-        <v>2</v>
-      </c>
       <c r="I53" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53" s="7">
         <v>-1</v>
@@ -3373,16 +3373,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G54" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H54" s="7">
         <v>5</v>
       </c>
-      <c r="H54" s="7">
-        <v>2</v>
-      </c>
       <c r="I54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J54" s="7">
         <v>-1</v>
@@ -3417,16 +3417,16 @@
         <v>1.5</v>
       </c>
       <c r="F55" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H55" s="7">
         <v>5</v>
       </c>
-      <c r="H55" s="7">
-        <v>2</v>
-      </c>
       <c r="I55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" s="7">
         <v>-1</v>
@@ -3461,16 +3461,16 @@
         <v>1.5</v>
       </c>
       <c r="F56" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H56" s="7">
         <v>5</v>
       </c>
-      <c r="H56" s="7">
-        <v>2</v>
-      </c>
       <c r="I56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J56" s="7">
         <v>-1</v>
@@ -3505,16 +3505,16 @@
         <v>1.5</v>
       </c>
       <c r="F57" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H57" s="7">
         <v>5</v>
       </c>
-      <c r="H57" s="7">
-        <v>2</v>
-      </c>
       <c r="I57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J57" s="7">
         <v>-1</v>
@@ -3549,16 +3549,16 @@
         <v>1.5</v>
       </c>
       <c r="F58" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H58" s="7">
         <v>5</v>
       </c>
-      <c r="H58" s="7">
-        <v>2</v>
-      </c>
       <c r="I58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58" s="7">
         <v>-1</v>
@@ -3593,16 +3593,16 @@
         <v>1.5</v>
       </c>
       <c r="F59" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H59" s="7">
         <v>5</v>
       </c>
-      <c r="H59" s="7">
-        <v>2</v>
-      </c>
       <c r="I59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J59" s="7">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>1.5</v>
       </c>
       <c r="F60" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H60" s="7">
         <v>5</v>
       </c>
-      <c r="H60" s="7">
-        <v>2</v>
-      </c>
       <c r="I60" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J60" s="7">
         <v>-1</v>
@@ -3681,16 +3681,16 @@
         <v>1.5</v>
       </c>
       <c r="F61" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H61" s="7">
         <v>5</v>
       </c>
-      <c r="H61" s="7">
-        <v>2</v>
-      </c>
       <c r="I61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J61" s="7">
         <v>-1</v>
@@ -3725,16 +3725,16 @@
         <v>1.5</v>
       </c>
       <c r="F62" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H62" s="7">
         <v>5</v>
       </c>
-      <c r="H62" s="7">
-        <v>2</v>
-      </c>
       <c r="I62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J62" s="7">
         <v>-1</v>
@@ -3769,16 +3769,16 @@
         <v>1.5</v>
       </c>
       <c r="F63" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H63" s="7">
         <v>5</v>
       </c>
-      <c r="H63" s="7">
-        <v>2</v>
-      </c>
       <c r="I63" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J63" s="7">
         <v>-1</v>
@@ -4077,16 +4077,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G70" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I70" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J70" s="7">
         <v>-1</v>
@@ -4121,16 +4121,16 @@
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G71" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I71" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J71" s="7">
         <v>-1</v>
@@ -4165,16 +4165,16 @@
         <v>1</v>
       </c>
       <c r="F72" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I72" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J72" s="7">
         <v>-1</v>
@@ -4209,16 +4209,16 @@
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G73" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H73" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I73" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J73" s="7">
         <v>-1</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="F74" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I74" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J74" s="7">
         <v>-1</v>
@@ -4297,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G75" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I75" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J75" s="7">
         <v>-1</v>
@@ -4341,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G76" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I76" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J76" s="7">
         <v>-1</v>
@@ -4385,16 +4385,16 @@
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G77" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I77" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J77" s="7">
         <v>-1</v>
@@ -4429,16 +4429,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G78" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I78" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78" s="7">
         <v>-1</v>
@@ -4473,16 +4473,16 @@
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G79" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I79" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J79" s="7">
         <v>-1</v>
@@ -4517,16 +4517,16 @@
         <v>2</v>
       </c>
       <c r="F80" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G80" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H80" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I80" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80" s="7">
         <v>-1</v>
@@ -4561,16 +4561,16 @@
         <v>2</v>
       </c>
       <c r="F81" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G81" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I81" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J81" s="7">
         <v>-1</v>
@@ -4605,16 +4605,16 @@
         <v>2</v>
       </c>
       <c r="F82" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I82" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J82" s="7">
         <v>-1</v>
@@ -4649,16 +4649,16 @@
         <v>2</v>
       </c>
       <c r="F83" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I83" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J83" s="7">
         <v>-1</v>
@@ -6101,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="F116" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G116" s="7">
         <v>8</v>
       </c>
       <c r="H116" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I116" s="7">
         <v>8</v>
@@ -6145,13 +6145,13 @@
         <v>1</v>
       </c>
       <c r="F117" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G117" s="7">
         <v>8</v>
       </c>
       <c r="H117" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I117" s="7">
         <v>8</v>
@@ -6189,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="F118" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G118" s="7">
         <v>8</v>
       </c>
       <c r="H118" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I118" s="7">
         <v>8</v>
@@ -6233,13 +6233,13 @@
         <v>1</v>
       </c>
       <c r="F119" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G119" s="7">
         <v>8</v>
       </c>
       <c r="H119" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I119" s="7">
         <v>8</v>
@@ -6277,13 +6277,13 @@
         <v>1</v>
       </c>
       <c r="F120" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G120" s="7">
         <v>8</v>
       </c>
       <c r="H120" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I120" s="7">
         <v>8</v>
@@ -6321,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="F121" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G121" s="7">
         <v>8</v>
       </c>
       <c r="H121" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I121" s="7">
         <v>8</v>
@@ -6365,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="F122" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G122" s="7">
         <v>8</v>
       </c>
       <c r="H122" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I122" s="7">
         <v>8</v>
@@ -6409,13 +6409,13 @@
         <v>1</v>
       </c>
       <c r="F123" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G123" s="7">
         <v>8</v>
       </c>
       <c r="H123" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I123" s="7">
         <v>8</v>
@@ -6453,13 +6453,13 @@
         <v>1</v>
       </c>
       <c r="F124" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G124" s="7">
         <v>8</v>
       </c>
       <c r="H124" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I124" s="7">
         <v>8</v>
@@ -6576,7 +6576,7 @@
         <v>10005</v>
       </c>
       <c r="C127" s="7">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D127" s="7">
         <v>2</v>
@@ -6606,7 +6606,7 @@
         <v>10</v>
       </c>
       <c r="M127" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N127" s="11">
         <v>10</v>
@@ -6620,7 +6620,7 @@
         <v>10015</v>
       </c>
       <c r="C128" s="7">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="D128" s="7">
         <v>2.5</v>
@@ -6650,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="M128" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N128" s="11">
         <v>10</v>
@@ -6664,7 +6664,7 @@
         <v>10110</v>
       </c>
       <c r="C129" s="7">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="D129" s="7">
         <v>3</v>
@@ -6694,10 +6694,10 @@
         <v>10</v>
       </c>
       <c r="M129" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N129" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -6708,7 +6708,7 @@
         <v>10115</v>
       </c>
       <c r="C130" s="7">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="D130" s="7">
         <v>3.5</v>
@@ -6738,10 +6738,10 @@
         <v>10</v>
       </c>
       <c r="M130" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N130" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
+++ b/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\MonsterData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFD87CB-7650-4279-9F99-EB083B77B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02633FE2-AE2A-49BB-A01F-241B5925A9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27885" yWindow="1080" windowWidth="25155" windowHeight="11385" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="25155" windowHeight="11385" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>107</v>
       </c>
       <c r="C9" s="6">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D9" s="6">
         <v>1.2</v>
@@ -1427,7 +1427,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="6">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D10" s="6">
         <v>1.2</v>
@@ -1471,7 +1471,7 @@
         <v>109</v>
       </c>
       <c r="C11" s="6">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="D11" s="6">
         <v>1.2</v>
@@ -1515,7 +1515,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D12" s="6">
         <v>1.2</v>
@@ -1559,13 +1559,13 @@
         <v>111</v>
       </c>
       <c r="C13" s="6">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D13" s="6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6">
         <v>-1</v>
@@ -1603,13 +1603,13 @@
         <v>112</v>
       </c>
       <c r="C14" s="6">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D14" s="6">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E14" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="6">
         <v>-1</v>
@@ -1647,13 +1647,13 @@
         <v>113</v>
       </c>
       <c r="C15" s="6">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D15" s="6">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="E15" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="6">
         <v>-1</v>
@@ -1691,13 +1691,13 @@
         <v>114</v>
       </c>
       <c r="C16" s="6">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D16" s="6">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
         <v>-1</v>
@@ -1735,13 +1735,13 @@
         <v>115</v>
       </c>
       <c r="C17" s="6">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D17" s="6">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="6">
         <v>-1</v>
@@ -1782,10 +1782,10 @@
         <v>300</v>
       </c>
       <c r="D18" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E18" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6">
         <v>-1</v>
@@ -1823,13 +1823,13 @@
         <v>117</v>
       </c>
       <c r="C19" s="6">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D19" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6">
         <v>-1</v>
@@ -1867,13 +1867,13 @@
         <v>118</v>
       </c>
       <c r="C20" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D20" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6">
         <v>-1</v>
@@ -1911,13 +1911,13 @@
         <v>119</v>
       </c>
       <c r="C21" s="6">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D21" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E21" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>207</v>
       </c>
       <c r="C30" s="6">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D30" s="7">
         <v>1.8</v>
@@ -2351,7 +2351,7 @@
         <v>208</v>
       </c>
       <c r="C31" s="6">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D31" s="7">
         <v>1.8</v>
@@ -2395,7 +2395,7 @@
         <v>209</v>
       </c>
       <c r="C32" s="6">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="D32" s="7">
         <v>1.8</v>
@@ -2440,7 +2440,7 @@
         <v>210</v>
       </c>
       <c r="C33" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D33" s="7">
         <v>1.8</v>
@@ -2484,13 +2484,13 @@
         <v>211</v>
       </c>
       <c r="C34" s="6">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="D34" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="E34" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6">
         <v>-1</v>
@@ -2528,13 +2528,13 @@
         <v>212</v>
       </c>
       <c r="C35" s="6">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="D35" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6">
         <v>-1</v>
@@ -2572,13 +2572,13 @@
         <v>213</v>
       </c>
       <c r="C36" s="6">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="D36" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="E36" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="6">
         <v>-1</v>
@@ -2616,13 +2616,13 @@
         <v>214</v>
       </c>
       <c r="C37" s="6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D37" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6">
         <v>-1</v>
@@ -2660,13 +2660,13 @@
         <v>215</v>
       </c>
       <c r="C38" s="6">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="D38" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E38" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="6">
         <v>-1</v>
@@ -2704,13 +2704,13 @@
         <v>216</v>
       </c>
       <c r="C39" s="6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D39" s="7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="E39" s="7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="6">
         <v>-1</v>
@@ -2748,13 +2748,13 @@
         <v>217</v>
       </c>
       <c r="C40" s="6">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="D40" s="7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="E40" s="7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="6">
         <v>-1</v>
@@ -2792,13 +2792,13 @@
         <v>218</v>
       </c>
       <c r="C41" s="6">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="D41" s="7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="E41" s="7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="6">
         <v>-1</v>
@@ -2836,13 +2836,13 @@
         <v>219</v>
       </c>
       <c r="C42" s="6">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="D42" s="7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="E42" s="7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="6">
         <v>-1</v>
@@ -3188,7 +3188,7 @@
         <v>306</v>
       </c>
       <c r="C50" s="7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -3232,7 +3232,7 @@
         <v>307</v>
       </c>
       <c r="C51" s="7">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>308</v>
       </c>
       <c r="C52" s="7">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -3320,7 +3320,7 @@
         <v>309</v>
       </c>
       <c r="C53" s="7">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>310</v>
       </c>
       <c r="C54" s="7">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>311</v>
       </c>
       <c r="C55" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D55" s="7">
         <v>1.2</v>
@@ -3452,7 +3452,7 @@
         <v>312</v>
       </c>
       <c r="C56" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D56" s="7">
         <v>1.2</v>
@@ -3496,7 +3496,7 @@
         <v>313</v>
       </c>
       <c r="C57" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D57" s="7">
         <v>1.2</v>
@@ -3540,7 +3540,7 @@
         <v>314</v>
       </c>
       <c r="C58" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D58" s="7">
         <v>1.2</v>
@@ -3584,10 +3584,10 @@
         <v>315</v>
       </c>
       <c r="C59" s="7">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D59" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E59" s="7">
         <v>1.5</v>
@@ -3628,10 +3628,10 @@
         <v>316</v>
       </c>
       <c r="C60" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D60" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7">
         <v>1.5</v>
@@ -3643,7 +3643,7 @@
         <v>2.5</v>
       </c>
       <c r="H60" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I60" s="7">
         <v>6</v>
@@ -3672,10 +3672,10 @@
         <v>317</v>
       </c>
       <c r="C61" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D61" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E61" s="7">
         <v>1.5</v>
@@ -3687,7 +3687,7 @@
         <v>2.5</v>
       </c>
       <c r="H61" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I61" s="7">
         <v>6</v>
@@ -3716,10 +3716,10 @@
         <v>318</v>
       </c>
       <c r="C62" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D62" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7">
         <v>1.5</v>
@@ -3731,7 +3731,7 @@
         <v>2.5</v>
       </c>
       <c r="H62" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I62" s="7">
         <v>6</v>
@@ -3760,10 +3760,10 @@
         <v>319</v>
       </c>
       <c r="C63" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D63" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
         <v>1.5</v>
@@ -3775,7 +3775,7 @@
         <v>2.5</v>
       </c>
       <c r="H63" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63" s="7">
         <v>6</v>
@@ -4112,7 +4112,7 @@
         <v>407</v>
       </c>
       <c r="C71" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D71" s="7">
         <v>0.8</v>
@@ -4156,7 +4156,7 @@
         <v>408</v>
       </c>
       <c r="C72" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D72" s="7">
         <v>0.8</v>
@@ -4200,7 +4200,7 @@
         <v>409</v>
       </c>
       <c r="C73" s="7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D73" s="7">
         <v>0.8</v>
@@ -4244,7 +4244,7 @@
         <v>410</v>
       </c>
       <c r="C74" s="7">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D74" s="7">
         <v>0.8</v>
@@ -4288,7 +4288,7 @@
         <v>411</v>
       </c>
       <c r="C75" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D75" s="7">
         <v>1</v>
@@ -4332,7 +4332,7 @@
         <v>412</v>
       </c>
       <c r="C76" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D76" s="7">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>413</v>
       </c>
       <c r="C77" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>414</v>
       </c>
       <c r="C78" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D78" s="7">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>415</v>
       </c>
       <c r="C79" s="7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I79" s="6">
         <v>7</v>
@@ -4508,10 +4508,10 @@
         <v>416</v>
       </c>
       <c r="C80" s="7">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D80" s="7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E80" s="7">
         <v>2</v>
@@ -4523,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="H80" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I80" s="6">
         <v>7</v>
@@ -4552,10 +4552,10 @@
         <v>417</v>
       </c>
       <c r="C81" s="7">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D81" s="7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E81" s="7">
         <v>2</v>
@@ -4567,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I81" s="6">
         <v>7</v>
@@ -4596,10 +4596,10 @@
         <v>418</v>
       </c>
       <c r="C82" s="7">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D82" s="7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E82" s="7">
         <v>2</v>
@@ -4611,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I82" s="6">
         <v>7</v>
@@ -4640,10 +4640,10 @@
         <v>419</v>
       </c>
       <c r="C83" s="7">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D83" s="7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E83" s="7">
         <v>2</v>
@@ -4655,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I83" s="6">
         <v>7</v>
@@ -5168,7 +5168,7 @@
         <v>511</v>
       </c>
       <c r="C95" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D95" s="7">
         <v>5</v>
@@ -5212,7 +5212,7 @@
         <v>512</v>
       </c>
       <c r="C96" s="7">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="D96" s="7">
         <v>5.2</v>
@@ -5256,7 +5256,7 @@
         <v>513</v>
       </c>
       <c r="C97" s="7">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D97" s="7">
         <v>5.4</v>
@@ -5300,7 +5300,7 @@
         <v>514</v>
       </c>
       <c r="C98" s="7">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="D98" s="7">
         <v>5.6</v>
@@ -5344,7 +5344,7 @@
         <v>515</v>
       </c>
       <c r="C99" s="7">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D99" s="7">
         <v>5.8</v>
@@ -5388,13 +5388,13 @@
         <v>516</v>
       </c>
       <c r="C100" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D100" s="7">
         <v>6</v>
       </c>
       <c r="E100" s="7">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="F100" s="7">
         <v>-1</v>
@@ -5432,13 +5432,13 @@
         <v>517</v>
       </c>
       <c r="C101" s="7">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D101" s="7">
         <v>7</v>
       </c>
       <c r="E101" s="7">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="F101" s="7">
         <v>-1</v>
@@ -5476,13 +5476,13 @@
         <v>518</v>
       </c>
       <c r="C102" s="7">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D102" s="7">
         <v>8</v>
       </c>
       <c r="E102" s="7">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="F102" s="7">
         <v>-1</v>
@@ -5520,13 +5520,13 @@
         <v>519</v>
       </c>
       <c r="C103" s="7">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D103" s="7">
         <v>9</v>
       </c>
       <c r="E103" s="7">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="F103" s="7">
         <v>-1</v>
@@ -5564,10 +5564,10 @@
         <v>520</v>
       </c>
       <c r="C104" s="7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D104" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -6092,7 +6092,7 @@
         <v>611</v>
       </c>
       <c r="C116" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D116" s="7">
         <v>4</v>
@@ -6136,7 +6136,7 @@
         <v>612</v>
       </c>
       <c r="C117" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D117" s="7">
         <v>4</v>
@@ -6180,7 +6180,7 @@
         <v>613</v>
       </c>
       <c r="C118" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D118" s="7">
         <v>4</v>
@@ -6224,7 +6224,7 @@
         <v>614</v>
       </c>
       <c r="C119" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D119" s="7">
         <v>4</v>
@@ -6268,7 +6268,7 @@
         <v>615</v>
       </c>
       <c r="C120" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D120" s="7">
         <v>4</v>
@@ -6312,7 +6312,7 @@
         <v>616</v>
       </c>
       <c r="C121" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
@@ -6321,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="F121" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G121" s="7">
         <v>8</v>
       </c>
       <c r="H121" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I121" s="7">
         <v>8</v>
@@ -6356,7 +6356,7 @@
         <v>617</v>
       </c>
       <c r="C122" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D122" s="7">
         <v>5</v>
@@ -6365,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="F122" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G122" s="7">
         <v>8</v>
       </c>
       <c r="H122" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I122" s="7">
         <v>8</v>
@@ -6400,7 +6400,7 @@
         <v>618</v>
       </c>
       <c r="C123" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D123" s="7">
         <v>5</v>
@@ -6409,13 +6409,13 @@
         <v>1</v>
       </c>
       <c r="F123" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G123" s="7">
         <v>8</v>
       </c>
       <c r="H123" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I123" s="7">
         <v>8</v>
@@ -6444,7 +6444,7 @@
         <v>619</v>
       </c>
       <c r="C124" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D124" s="7">
         <v>5</v>
@@ -6453,13 +6453,13 @@
         <v>1</v>
       </c>
       <c r="F124" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G124" s="7">
         <v>8</v>
       </c>
       <c r="H124" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I124" s="7">
         <v>8</v>
@@ -6576,7 +6576,7 @@
         <v>10005</v>
       </c>
       <c r="C127" s="7">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D127" s="7">
         <v>2</v>
@@ -6620,13 +6620,13 @@
         <v>10015</v>
       </c>
       <c r="C128" s="7">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="D128" s="7">
         <v>2.5</v>
       </c>
       <c r="E128" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F128" s="7">
         <v>-1</v>
@@ -6644,7 +6644,7 @@
         <v>10</v>
       </c>
       <c r="K128" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L128" s="7">
         <v>10</v>
@@ -6664,7 +6664,7 @@
         <v>10110</v>
       </c>
       <c r="C129" s="7">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D129" s="7">
         <v>3</v>
@@ -6688,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="K129" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L129" s="7">
         <v>10</v>
@@ -6708,13 +6708,13 @@
         <v>10115</v>
       </c>
       <c r="C130" s="7">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D130" s="7">
         <v>3.5</v>
       </c>
       <c r="E130" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F130" s="7">
         <v>-1</v>
@@ -6732,7 +6732,7 @@
         <v>10</v>
       </c>
       <c r="K130" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L130" s="7">
         <v>10</v>

--- a/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
+++ b/Assets/Resources/Data/MonsterData/Excel/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\MonsterData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02633FE2-AE2A-49BB-A01F-241B5925A9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA3C54-FBBD-477E-9E67-3A1A0A46776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="25155" windowHeight="11385" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="26505" windowHeight="18300" xr2:uid="{630A6D36-CE19-4A76-AEA0-197305A2016D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3068,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3112,7 +3112,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H48" s="7">
         <v>5</v>
@@ -3156,7 +3156,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -3197,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -3241,10 +3241,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G51" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H51" s="7">
         <v>5</v>
@@ -3285,10 +3285,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G52" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
@@ -3329,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -3373,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H54" s="7">
         <v>5</v>
@@ -3417,10 +3417,10 @@
         <v>1.5</v>
       </c>
       <c r="F55" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
@@ -3461,10 +3461,10 @@
         <v>1.5</v>
       </c>
       <c r="F56" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -3505,10 +3505,10 @@
         <v>1.5</v>
       </c>
       <c r="F57" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H57" s="7">
         <v>5</v>
@@ -3549,10 +3549,10 @@
         <v>1.5</v>
       </c>
       <c r="F58" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
@@ -3593,10 +3593,10 @@
         <v>1.5</v>
       </c>
       <c r="F59" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H59" s="7">
         <v>5</v>
@@ -3637,10 +3637,10 @@
         <v>1.5</v>
       </c>
       <c r="F60" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G60" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
@@ -3681,10 +3681,10 @@
         <v>1.5</v>
       </c>
       <c r="F61" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -3725,10 +3725,10 @@
         <v>1.5</v>
       </c>
       <c r="F62" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -3769,10 +3769,10 @@
         <v>1.5</v>
       </c>
       <c r="F63" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H63" s="7">
         <v>3</v>
@@ -4080,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="6">
         <v>8</v>
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="6">
         <v>8</v>
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="6">
         <v>8</v>
@@ -4212,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="6">
         <v>8</v>
@@ -4256,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="6">
         <v>8</v>
@@ -4297,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="6">
         <v>8</v>
@@ -4341,10 +4341,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="6">
         <v>8</v>
@@ -4385,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="6">
         <v>8</v>
@@ -4429,10 +4429,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="6">
         <v>8</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G79" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="6">
         <v>5</v>
@@ -4520,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" s="6">
         <v>5</v>
@@ -4564,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="6">
         <v>5</v>
@@ -4608,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" s="6">
         <v>5</v>
@@ -4652,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" s="6">
         <v>5</v>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G116" s="7">
         <v>8</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G117" s="7">
         <v>8</v>
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G118" s="7">
         <v>8</v>
@@ -6233,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G119" s="7">
         <v>8</v>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G120" s="7">
         <v>8</v>
